--- a/output/jd.xlsx
+++ b/output/jd.xlsx
@@ -475,25 +475,743 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>1585 TerrainCut</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tosaerba Professionali</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Piatti a scarico laterale 7-Iron PRO od a scarico posteriore FASTBACK
+ComfortCab integrata
+Motore diesel
+Compatibile con la lama anteriore Select e la spazzolatrice anteriore
+Specifiche
+John Deere 1585 TerrainCut Tosaerba Professionali
+Dimensioni piatto 60, 62, 72 in153, 158, 183 cm
+Potenza del motore 38.2 CV*28.1 kW
+Opzioni combustibile Diesel</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\1585-TerrainCut.jpg</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1585-terraincut/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1580 TerrainCut</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tosaerba Professionali</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Piatti a scarico laterale 7-Iron PRO od a scarico posteriore FASTBACK
+Motore diesel
+Compatibile con la lama anteriore Select e la spazzolatrice anteriore
+Specifiche
+John Deere 1580 TerrainCut Tosaerba Professionali
+Dimensioni piatto 60, 62, 72 in153, 158, 183 cm
+Potenza del motore 38.2 CV*28.1 kW
+Opzioni combustibile Diesel</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\1580-TerrainCut.jpg</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1580-terraincut/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1570 TerrainCut</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Tosaerba Professionali</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Piatti a scarico laterale 7-Iron PRO od a scarico posteriore FASTBACK
+Motore diesel
+Compatibile con la lama anteriore Select e la spazzolatrice anteriore
+Specifiche
+John Deere 1570 TerrainCut Tosaerba Professionali
+Dimensioni piatto 60, 62, 72 in153, 158, 183 cm
+Potenza del motore 30.9 CV*22.7 kW
+Opzioni combustibile Diesel</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\1570-TerrainCut.jpg</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1570-terraincut/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1550 TerrainCut</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tosaerba Professionali</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Piatti a scarico laterale 7-Iron PRO od a scarico posteriore FASTBACK
+Motore diesel
+Trasmissione idrostatica 4WD
+Compatibile con la lama anteriore Select e la spazzolatrice anteriore
+Specifiche
+John Deere 1550 TerrainCut Tosaerba Professionali
+Dimensioni piatto 60, 62, 72 in153, 158, 183 cm
+Potenza del motore 24.2 CV*17.8 kW
+Opzioni combustibile Diesel</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\1550-TerrainCut.jpg</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1550-terraincut/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Z740R</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ZTrak™ a benzina</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16,2 kW (21,7 CV) a 3.100 giri/min (Stage V)
+Velocità di avanzamento: 13,7 km/h (8,6 mph)
+Larghezze di taglio: 122 cm (48’’) o 137 cm (54’’)
+Pneumatici radiali Airless MichelXTweel Turf opzionali
+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\Z740R.jpg</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-raggio-di-sterzata-zero/z740r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>X950R</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Tosaerba Professionali</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Motore diesel ad alta coppia
+Motori idraulici heavy-duty delle ruote
+Eccellente ergonomia e comandi intuitivi
+Specifiche
+John Deere X950R Tosaerba Professionali
+Potenza motore 18,5 KW25,2 CV
+Trasmissione Idraulico
+Servosterzo 2 ruote sterzanti anteriori
+Velocità di avanzamento 14,5 km/h</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\X950R.jpg</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/trattorini-tosaerba-diesel/serie-x900/x950r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>X940</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Trattorini Tosaerba Diesel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pedali Twin Touch
+Comando Cruise
+Sistema di sollevamento del piatto: idraulico
+Innesto del piatto di taglio: elettrico
+Servosterzo tipo: 2 ruote sterzanti anteriori
+Sistema di trasmissione: 2 ruote motrici
+Specifiche
+John Deere X940 Trattorini Tosaerba Diesel
+Motore 18 kW24.5 CV
+Trasmissione 2 ruote motrici
+Servosterzo Idraulico, 2 ruote sterzanti anteriori
+Velocità in marcia avanti 13,7 km/h</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\X940.jpg</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/trattorini-tosaerba-diesel/serie-x900/x940/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>X949</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Trattorini Tosaerba Diesel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pedali Twin Touch
+Comando Cruise
+Sistema di sollevamento del piatto: idraulico
+Innesto del piatto di taglio: elettrico
+Servosterzo tipo: 4 ruote sterzanti
+Sistema di trasmissione: 4 ruote motrici
+Specifiche
+John Deere X949 Trattorini Tosaerba Diesel
+Motore 18 kW24.5 CV
+Trasmissione 4 ruote motrici
+Servosterzo Idraulico, 4 ruote sterzanti
+Velocità in marcia avanti 13,7 km/h</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\X949.jpg</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/trattorini-tosaerba-diesel/serie-x900/x949/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>X948</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Trattorini Tosaerba Diesel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pedali Twin Touch
+Comando Cruise
+Sistema di sollevamento del piatto: idraulico
+Innesto del piatto di taglio: elettrico
+Servosterzo tipo: 2 ruote sterzanti anteriori
+Sistema di trasmissione: 4 ruote motrici
+Specifiche
+John Deere X948 Trattorini Tosaerba Diesel
+Motore 18 kW24.5 CV
+Trasmissione 4 ruote motrici
+Servosterzo Idraulico, 2 ruote sterzanti anteriori
+Velocità in marcia avanti 13,7 km/h</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\X948.jpg</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/trattorini-tosaerba-diesel/serie-x900/x948/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1575 TerrainCut</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Tosaerba Professionali</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Piatti a scarico laterale 7-Iron PRO od a scarico posteriore FASTBACK
+Motore diesel
+ComfortCab integrata
+Compatibile con la lama anteriore Select e la spazzolatrice anteriore
+Specifiche
+John Deere 1575 TerrainCut Tosaerba Professionali
+Dimensioni piatto 60, 62, 72 in153, 158, 183 cm
+Potenza del motore 30.9 CV*22.7 kW
+Opzioni combustibile Diesel</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\1575-TerrainCut.jpg</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1575-terraincut/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Z997R</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ZTrak™ diesel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27,5 kW (37,4 CV) a 2.800 giri/min (Stage V)
+Velocità di avanzamento: 18 km/h (11,5 mph)
+Larghezze di taglio: 152 cm (60’’) o 183 cm (72’’)
+Pneumatici radiali Airless MichelXTweel Turf opzionali
+</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\Z997R.jpg</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-raggio-di-sterzata-zero/z997r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Z994R</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ZTrak™ diesel</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18,4 kW (24,7 CV) a 3.200 giri/min (Stage V)
+Velocità di avanzamento: 17 km/h (10,5 mph)
+Larghezze di taglio: 137 cm (54’’) o 152 cm (60’’)
+Pneumatici radiali Airless MichelXTweel Turf opzionali
+</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\Z994R.jpg</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-raggio-di-sterzata-zero/z994r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Z545R</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Trattorini</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11756</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Facile da guidare
+Manovrabilità eccezionale
+Struttura robusta
+Velocità di taglio elevate: 14,5 km/h
+Motore da 15,3 kW, 724cc
+Piatto ad alta capacità da 122 cm (48“)
+Specifiche
+John Deere Z545R Trattorini
+Dimensioni area Oltre 8.000 m²
+Larghezza di taglio 48" ad alta capacità (122 cm)
+Potenza 16,1 kW / 3350 rpm
+Velocità Fino a 14,5 km/h (9 mph)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\Z545R.jpg</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z545r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>X584</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>11574</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Potenza e prestazioni straordinarie
 Telaio saldato rinforzato
@@ -639,523 +1357,107 @@
 Dati Raccolti 27 luglio 2020</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>1751</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>C:\ImmaginiDanea\jd\X584.jpg</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>https://www.deere.it/it/tosaerba/trattorini/serie-x500/x584/</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>X590</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Z315E</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11403</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Potenza e prestazioni straordinarie
-Telaio saldato rinforzato
-Servosterzo
-Sollevamento idraulico del piatto
-Specifications
-John Deere X590 Trattorini
-Motore - Potenza A 3250 giri/min, 16,7 kW
-Motore -  Produttore/Modello FS730 EFI
-Tipo di gruppo cambio/differenziale K72 idrostatico integrato con trasmissione
-Transasse - Comando Pedali Twin Touch™
-Pneumatici posteriori 24x12-12 per manto erboso
-Tipo sistema di sollevamento Potenza idraulica
-Larghezza di taglio 122, 137 cm48, 54 in.
-Garanzia
-Cambio olio
-Potenza A 3.250 giri/min, 16,7 kW
-Cilindrata 726 cc44,3 cu in.
-Produttore/Modello FS730 EFI
-Tipo Impianto di iniezione elettronica (EFI), valvola in testa (OHV). Lubrificazione a piena pressione, filtro dell'olio
-Cilindri Accoppiati a V, rivestimenti in ghisa
-Regolatore Comando elettronico acceleratore a velocità costante
-Comando velocità/starter EFI, starter non necessario
-Impianto di raffreddamento Aria
-Filtro aria A secco, sostituibile con schiuma predetergente
-Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
-Tipo Benzina
-Mandata del carburante Impianto di iniezione elettronica (EFI) a circuito aperto
-Indicatore livello carburante Indicatore su cruscotto
-Posizione del serbatoio carburante Posteriore
-Bocchettone di rifornimento carburante Sul parafango sinistro, 7,6 cm3 in.
-Capacità serbatoio carburante 16,7 L4,4 U.S. gal.
-Batteria 12 V500 CCA
-Sistema di carica Alternatore a volano, regolato, 15 amp
-Motorino di avviamento motore Componenti elettronici
-Contaore Sì
-Fari anteriori Due standard
-Luci di coda o catarinfrangente Catarifrangenti
-Retroilluminazione No
-Luci di lavoro posteriori No
-Presa da 12 V Sì
-Tipo K72 idrostatico integrato con trasmissione
-Comando Pedali Twin Touch™
-CruiseControl Sì, leva sul cruscotto
-Scambiatore di calore dell'olio Alette e ventola su transaxle
-Filtro olio Sì, sostituibile
-Bloccaggio del differenziale Standard
-Velocità di avanzamento 0-11,6 km/h0-7,2 mph
-Velocità di retromarcia 0-8,4 km/h0-5,2 mph
-Freni Disco interno in bagno d'olio
-Telaio Saldato rinforzato
-Vernice di fondo/vernice Elettroforesi/polvere
-Contrappeso Standard anteriore e posteriore – Ciascuna sostiene fino a quattro pesi Quik-Tatch™, 19 kg42 lb
-Attacco femmina No
-Assale anteriore Ghisa
-Boccole degli alberini In metallo, sostituibili
-Pneumatici anteriori 16x6,5-8 per manto erboso
-Pneumatici posteriori 24x12-12 per manto erboso
-Materiale del cofano Il materiale completamente integrato, stampato in tinta attutisce il rumore, non si arrugginisce e non si ammacca.
-Materiale del piatto di taglio Acciaio stampato
-Tappetini Gomma antiscivolo
-Vano portaoggetti Sì, cassetta portattrezzi sotto il sedile e coperta
-Etichetta adesiva con intervalli di manutenzione Sì
-Maniglie/impugnature parafango Impugnature
-Portatazza Sì
-Montaggio attrezzatura Sì, rinforzato
-Tipo Alimentazione, sterzatura a due ruote
-Sterzo sulle quattro ruote Non disponibile su questo modello
-Volante 35,6 cm14 in.
-Volante inclinabile Standard, cinque posizioni
-Raggio di sterzata 55,9 cm22 in.
-Raggio cerchio non tagliato 48A, 68,6 cm27 in.54A, 61 cm24 in.
-Tipo Schienale alto personalizzato
-Altezza schienale 53 cm21 in.
-Braccioli Opzionali
-Regolazione longitudinale Con operatore seduto, guida di scorrimento, 15 posizioni, 17 cm6,6 in.
-Sospensione del sedile Due molle a spirale, regolazione in tre posizioni senza attrezzi in base al peso dell'operatore
-Tipo Potenza idraulica
-Attacchi idraulici No
-Altezza di taglio del tosaerba 13 posizioni, 2,5-10,2 cm1-4 in.
-Incrementi altezza di taglio 0,64 cm0,25 in.
-Altezza di taglio predefinita Sì
-Tipo Scarico laterale
-Larghezza di taglio 122, 137 cm48, 54 in.
-Struttura Cassa del piatto in acciaio stampato
-Materiale piatto di taglio 10 gauge3,4 mm0,135 in.
-Presa di lavaggio del tosaerba Sì
-Sistema di trasmissione tosaerba Cinghia in linea, PTO elettrica
-Ruote tosaerba Quattro
-Regolazione ruote tosaerba Perno caricato a molla, sette posizioni
-Regolazione livello del tosaerba Condotti di regolazione di precisione Exact Adjust e volantino di livellamento del piatto a bordo
-Tipo Slittamento sotto il trattore
-Bracci delle parallele anteriori Fissati in due punti con spine elastiche
-Bracci delle parallele posteriori Perni a J caricati a molla
-Rotazione ruote tosaerba Sì, 90 gradi per una semplice rimozione del tosaerba
-Sistema di trasmissione Cinghia doppia
-Conforme agli standard ANSI Sì
-Conforme agli standard OPEI Sì
-Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
-Video sulla sicurezza
-Note Transaxle rinforzato per trattorino da giardinoServosterzo e sollevamento idraulico praticiStaffe per pesi anteriori e posteriori integrate
-Garanzia
-Tosaerba 48A e 54A
-Raccoglierba posteriore
-Raccoglierba motorizzato Soffiatore Power Flow™
-Sistema di pacciamatura Sì
-Strigliatore anteriore
-Lama anteriore 122 cm48 in.
-Lama intermedia
-Turbina da neve 119 cm47 in.
-Spazzola rotativa
-Dissodatore rotativo
-Manicotto dell’attacco
-Attacco a 3 punti
-Presa di forza (PTO) posteriore
-Aratro a versoio
-Raschiatore
-Coltivatore
-Lama posteriore
-Erpice a dischi
-Rastrello raccoglipietre
-Irroratrice
-Spargitrice Traino posteriore, 80 kg175 lb
-Paraurti anteriore Paraurti/contrappeso anteriore standard
-Protezione spazzola Sì
-Protezione dalle intemperie
-Copertura parasole
-Attacco gancio posteriore
-Portabenna
-Striatura erba
-Pala per trattore
-Caricatore frontale
-Altre attrezzature
-Strumenti con traino posteriore
-Altezza 132,7 cm52,25 in.
-Lunghezza totale 201 cm79 in.
-Passo 130 cm51,2 in.
-Larghezza con il tosaerba 48A: 159 cm62,5 in.54A: 174 cm68,4 in.
-Larghezza con tosaerba (deflettore sollevato per immagazzinamento) 48A: 136 cm53,6 in.54A: 151 cm59,4 in.
-Larghezza senza il tosaerba 104,1 cm43 in.
-Peso Tosaerba 48A, senza carburante: 361 kg797 lbTosaerba 54A, senza carburante: 365 kg805 lb
-Posizione produzione Horicon (Wisconsin), USA
-Dati Raccolti 27 luglio 2020</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.640</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facilità di utilizzo
+Elevata manovrabilità
+Struttura robusta
+Maggiori velocità di taglio: 11,3 km/h
+12.1 kW (16,2 CV)
+Piatto tosaerba Accel Deep™ da 107 cm
+</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>1751</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\X590.jpg</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x500/x590/</t>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\Z315E.jpg</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z315e/</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1550 TerrainCut</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Tosaerba Professionali</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Piatti a scarico laterale 7-Iron PRO od a scarico posteriore FASTBACK
-Motore diesel
-Trasmissione idrostatica 4WD
-Compatibile con la lama anteriore Select e la spazzolatrice anteriore
-Specifiche
-John Deere 1550 TerrainCut Tosaerba Professionali
-Dimensioni piatto 60, 62, 72 in153, 158, 183 cm
-Potenza del motore 24.2 CV*17.8 kW
-Opzioni combustibile Diesel</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\1550-TerrainCut.jpg</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1550-terraincut/</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>X950R</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Tosaerba Professionali</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Motore diesel ad alta coppia
-Motori idraulici heavy-duty delle ruote
-Eccellente ergonomia e comandi intuitivi
-Specifiche
-John Deere X950R Tosaerba Professionali
-Potenza motore 18,5 KW25,2 CV
-Trasmissione Idraulico
-Servosterzo 2 ruote sterzanti anteriori
-Velocità di avanzamento 14,5 km/h</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\X950R.jpg</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/trattorini-tosaerba-diesel/serie-x900/x950r/</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>X949</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Trattorini Tosaerba Diesel</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Pedali Twin Touch
-Comando Cruise
-Sistema di sollevamento del piatto: idraulico
-Innesto del piatto di taglio: elettrico
-Servosterzo tipo: 4 ruote sterzanti
-Sistema di trasmissione: 4 ruote motrici
-Specifiche
-John Deere X949 Trattorini Tosaerba Diesel
-Motore 18 kW24.5 CV
-Trasmissione 4 ruote motrici
-Servosterzo Idraulico, 4 ruote sterzanti
-Velocità in marcia avanti 13,7 km/h</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\X949.jpg</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/trattorini-tosaerba-diesel/serie-x900/x949/</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>X940</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Trattorini Tosaerba Diesel</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Pedali Twin Touch
-Comando Cruise
-Sistema di sollevamento del piatto: idraulico
-Innesto del piatto di taglio: elettrico
-Servosterzo tipo: 2 ruote sterzanti anteriori
-Sistema di trasmissione: 2 ruote motrici
-Specifiche
-John Deere X940 Trattorini Tosaerba Diesel
-Motore 18 kW24.5 CV
-Trasmissione 2 ruote motrici
-Servosterzo Idraulico, 2 ruote sterzanti anteriori
-Velocità in marcia avanti 13,7 km/h</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\X940.jpg</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/trattorini-tosaerba-diesel/serie-x900/x940/</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1585 TerrainCut</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Tosaerba Professionali</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Piatti a scarico laterale 7-Iron PRO od a scarico posteriore FASTBACK
-ComfortCab integrata
-Motore diesel
-Compatibile con la lama anteriore Select e la spazzolatrice anteriore
-Specifiche
-John Deere 1585 TerrainCut Tosaerba Professionali
-Dimensioni piatto 60, 62, 72 in153, 158, 183 cm
-Potenza del motore 38.2 CV*28.1 kW
-Opzioni combustibile Diesel</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\1585-TerrainCut.jpg</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1585-terraincut/</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1600T Serie III</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>Tosaerba a taglio rotativo per ampie superfici</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Trazione integrale permanente o su richiesta
 Realizzato per la falciatura di superfici ampie
@@ -1303,384 +1605,219 @@
 Dati Raccolti 12 ott 2017</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>1751</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>C:\ImmaginiDanea\jd\1600T-Serie-III.jpg</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-taglio-rotativo-per-ampie-superfici/1600t/</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>X948</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Trattorini Tosaerba Diesel</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Pedali Twin Touch
-Comando Cruise
-Sistema di sollevamento del piatto: idraulico
-Innesto del piatto di taglio: elettrico
-Servosterzo tipo: 2 ruote sterzanti anteriori
-Sistema di trasmissione: 4 ruote motrici
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>9009A TerrainCut</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Macchine da tee, approach e rough</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cinque unità di taglio rotative indipendenti da 68,58 cm con larghezza di taglio di 2,74 m
+Scocca a forma profonda con scivolo dello scarico posteriore esclusivo
+Sistema a spine per regolare l'altezza di taglio comodamente senza l'uso di attrezzi
+LoadMatch™ per affrontare al meglio le salite e ottimizzare la qualità di taglio
 Specifiche
-John Deere X948 Trattorini Tosaerba Diesel
-Motore 18 kW24.5 CV
-Trasmissione 4 ruote motrici
-Servosterzo Idraulico, 2 ruote sterzanti anteriori
-Velocità in marcia avanti 13,7 km/h</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+John Deere 9009A TerrainCut Macchine da tee, approach e rough
+Diesel a 4 cilindri turbocompresso a iniezione diretta 55.1 CV (41.1*kW)
+Velocità di taglio 0 – 8 mph (0-12,8 km/h)
+Larghezza di taglio totale 108 in (274 cm)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>1751</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\X948.jpg</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/trattorini-tosaerba-diesel/serie-x900/x948/</t>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\9009A-TerrainCut.jpg</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-golf-sport/macchine-da-tee-approach-e-rough/9009a-terraincut/</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1575 TerrainCut</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Tosaerba Professionali</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Piatti a scarico laterale 7-Iron PRO od a scarico posteriore FASTBACK
-Motore diesel
-ComfortCab integrata
-Compatibile con la lama anteriore Select e la spazzolatrice anteriore
-Specifiche
-John Deere 1575 TerrainCut Tosaerba Professionali
-Dimensioni piatto 60, 62, 72 in153, 158, 183 cm
-Potenza del motore 30.9 CV*22.7 kW
-Opzioni combustibile Diesel</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\1575-TerrainCut.jpg</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1575-terraincut/</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1570 TerrainCut</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Tosaerba Professionali</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Piatti a scarico laterale 7-Iron PRO od a scarico posteriore FASTBACK
-Motore diesel
-Compatibile con la lama anteriore Select e la spazzolatrice anteriore
-Specifiche
-John Deere 1570 TerrainCut Tosaerba Professionali
-Dimensioni piatto 60, 62, 72 in153, 158, 183 cm
-Potenza del motore 30.9 CV*22.7 kW
-Opzioni combustibile Diesel</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\1570-TerrainCut.jpg</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1570-terraincut/</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1580 TerrainCut</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Tosaerba Professionali</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Piatti a scarico laterale 7-Iron PRO od a scarico posteriore FASTBACK
-Motore diesel
-Compatibile con la lama anteriore Select e la spazzolatrice anteriore
-Specifiche
-John Deere 1580 TerrainCut Tosaerba Professionali
-Dimensioni piatto 60, 62, 72 in153, 158, 183 cm
-Potenza del motore 38.2 CV*28.1 kW
-Opzioni combustibile Diesel</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\1580-TerrainCut.jpg</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1580-terraincut/</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>X350</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>X590</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6772</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Innesto del piatto: elettrico
-Pedali Twin Touch
-Cruise Control
-Scelta tra diversi piatti tosaerba
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11403</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Potenza e prestazioni straordinarie
+Telaio saldato rinforzato
+Servosterzo
+Sollevamento idraulico del piatto
 Specifications
-John Deere X350 Trattorini
-Motore - Potenza A 3100 giri/min, 14,1 kW
-Motore -  Produttore/Modello FR651V
-Tipo di gruppo cambio/differenziale K46 idrostatico integrato con trasmissione
+John Deere X590 Trattorini
+Motore - Potenza A 3250 giri/min, 16,7 kW
+Motore -  Produttore/Modello FS730 EFI
+Tipo di gruppo cambio/differenziale K72 idrostatico integrato con trasmissione
 Transasse - Comando Pedali Twin Touch™
-Pneumatici posteriori 20x10-8
-Tipo sistema di sollevamento Con acceleratore a pedale e supporto a molla regolabile opzionale
-Larghezza di taglio 107 cm42 in.
+Pneumatici posteriori 24x12-12 per manto erboso
+Tipo sistema di sollevamento Potenza idraulica
+Larghezza di taglio 122, 137 cm48, 54 in.
 Garanzia
 Cambio olio
-Potenza A 3100 giri/min, 14,1 kW
+Potenza A 3.250 giri/min, 16,7 kW
 Cilindrata 726 cc44,3 cu in.
-Produttore/Modello FR651V
-Tipo Valvola in testa (OHV), lubrificazione a piena pressione, filtro olio
+Produttore/Modello FS730 EFI
+Tipo Impianto di iniezione elettronica (EFI), valvola in testa (OHV). Lubrificazione a piena pressione, filtro dell'olio
 Cilindri Accoppiati a V, rivestimenti in ghisa
-Regolatore Meccanico
-Comando velocità/starter Leve separate, ritorno starter automatico
+Regolatore Comando elettronico acceleratore a velocità costante
+Comando velocità/starter EFI, starter non necessario
 Impianto di raffreddamento Aria
-Filtro aria A secco, sostituibile
+Filtro aria A secco, sostituibile con schiuma predetergente
 Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
 Tipo Benzina
-Mandata del carburante Pompa a impulsi, carburatore
+Mandata del carburante Impianto di iniezione elettronica (EFI) a circuito aperto
 Indicatore livello carburante Indicatore su cruscotto
 Posizione del serbatoio carburante Posteriore
 Bocchettone di rifornimento carburante Sul parafango sinistro, 7,6 cm3 in.
-Capacità serbatoio carburante 12,5 L3,3 U.S. gal.
-Batteria 12 V340 CCA
-Sistema di carica Alternatore a volano, regolato, 12 amp
-Motorino di avviamento motore Bendix
+Capacità serbatoio carburante 16,7 L4,4 U.S. gal.
+Batteria 12 V500 CCA
+Sistema di carica Alternatore a volano, regolato, 15 amp
+Motorino di avviamento motore Componenti elettronici
 Contaore Sì
 Fari anteriori Due standard
-Luci di coda o catarinfrangente No
+Luci di coda o catarinfrangente Catarifrangenti
 Retroilluminazione No
 Luci di lavoro posteriori No
-Presa da 12 V No
-Tipo K46 idrostatico integrato con trasmissione
+Presa da 12 V Sì
+Tipo K72 idrostatico integrato con trasmissione
 Comando Pedali Twin Touch™
 CruiseControl Sì, leva sul cruscotto
 Scambiatore di calore dell'olio Alette e ventola su transaxle
-Filtro olio Sì, interno
-Bloccaggio del differenziale No
-Velocità di avanzamento 0-8,2 km/h0-5,1 mph
-Velocità di retromarcia 0-5,9 km/h0-3,7 mph
-Freni Disco interno a bagno d'olio
+Filtro olio Sì, sostituibile
+Bloccaggio del differenziale Standard
+Velocità di avanzamento 0-11,6 km/h0-7,2 mph
+Velocità di retromarcia 0-8,4 km/h0-5,2 mph
+Freni Disco interno in bagno d'olio
 Telaio Saldato rinforzato
 Vernice di fondo/vernice Elettroforesi/polvere
-Contrappeso Opzionale anteriore e opzionale posteriore, ciascuna sostiene fino a due pesi Quik-Tatch™, 19 kg42 lb
+Contrappeso Standard anteriore e posteriore – Ciascuna sostiene fino a quattro pesi Quik-Tatch™, 19 kg42 lb
 Attacco femmina No
 Assale anteriore Ghisa
-Boccole degli alberini No
-Pneumatici anteriori 15x6-6
-Pneumatici posteriori 20x10-8
-Materiale del cofano Il materiale completamente integrato, stampato in tinta attutisce il rumore, non si arrugginisce o ammacca.
+Boccole degli alberini In metallo, sostituibili
+Pneumatici anteriori 16x6,5-8 per manto erboso
+Pneumatici posteriori 24x12-12 per manto erboso
+Materiale del cofano Il materiale completamente integrato, stampato in tinta attutisce il rumore, non si arrugginisce e non si ammacca.
 Materiale del piatto di taglio Acciaio stampato
 Tappetini Gomma antiscivolo
 Vano portaoggetti Sì, cassetta portattrezzi sotto il sedile e coperta
 Etichetta adesiva con intervalli di manutenzione Sì
-Maniglie/impugnature parafango No
+Maniglie/impugnature parafango Impugnature
 Portatazza Sì
 Montaggio attrezzatura Sì, rinforzato
-Tipo Manuale, a settore e a pignone
+Tipo Alimentazione, sterzatura a due ruote
 Sterzo sulle quattro ruote Non disponibile su questo modello
 Volante 35,6 cm14 in.
-Volante inclinabile No
-Raggio di sterzata 40,6 cm16 in.
-Raggio cerchio non tagliato Piatto tosaerba 42A: 66 cm26 in.Piatto tosaerba 42M, a destra: 58,4 cm23 in.Piatto tosaerba 42M, a sinistra: 68,6 cm27 in.
-Tipo Schienale aperto con impugnatura
-Altezza schienale 38 cm15 in.
-Braccioli No
+Volante inclinabile Standard, cinque posizioni
+Raggio di sterzata 55,9 cm22 in.
+Raggio cerchio non tagliato 48A, 68,6 cm27 in.54A, 61 cm24 in.
+Tipo Schienale alto personalizzato
+Altezza schienale 53 cm21 in.
+Braccioli Opzionali
 Regolazione longitudinale Con operatore seduto, guida di scorrimento, 15 posizioni, 17 cm6,6 in.
 Sospensione del sedile Due molle a spirale, regolazione in tre posizioni senza attrezzi in base al peso dell'operatore
-Tipo Con acceleratore a pedale e supporto a molla regolabile opzionale
+Tipo Potenza idraulica
 Attacchi idraulici No
 Altezza di taglio del tosaerba 13 posizioni, 2,5-10,2 cm1-4 in.
 Incrementi altezza di taglio 0,64 cm0,25 in.
 Altezza di taglio predefinita Sì
-Tipo Opzioni scarico laterale e mulching
-Larghezza di taglio 107 cm42 in.
-Struttura Cassa del piatto di taglio in acciaio stampato
-Materiale piatto di taglio 12 gauge2,7 mm0,105 in.
+Tipo Scarico laterale
+Larghezza di taglio 122, 137 cm48, 54 in.
+Struttura Cassa del piatto in acciaio stampato
+Materiale piatto di taglio 10 gauge3,4 mm0,135 in.
 Presa di lavaggio del tosaerba Sì
 Sistema di trasmissione tosaerba Cinghia in linea, PTO elettrica
-Ruote tosaerba Due
-Regolazione ruote tosaerba A quattro posizioni, richiesto attrezzo
-Regolazione livello del tosaerba Condotti di regolazione di precisione e volantino di livellamento del piatto di taglio a bordo
+Ruote tosaerba Quattro
+Regolazione ruote tosaerba Perno caricato a molla, sette posizioni
+Regolazione livello del tosaerba Condotti di regolazione di precisione Exact Adjust e volantino di livellamento del piatto a bordo
 Tipo Slittamento sotto il trattore
 Bracci delle parallele anteriori Fissati in due punti con spine elastiche
-Bracci delle parallele posteriori Due perni e fermagli elastici
-Rotazione ruote tosaerba No
-Sistema di trasmissione 42A: Cinghia singola42M: Cinghia doppia
+Bracci delle parallele posteriori Perni a J caricati a molla
+Rotazione ruote tosaerba Sì, 90 gradi per una semplice rimozione del tosaerba
+Sistema di trasmissione Cinghia doppia
 Conforme agli standard ANSI Sì
 Conforme agli standard OPEI Sì
 Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
 Video sulla sicurezza
-Note Il materiale completamente integrato, stampato in tinta attutisce il rumore, non si arrugginisce o ammacca.Primer e finitura con vernice in polvere elettroforetici duraturi
+Note Transaxle rinforzato per trattorino da giardinoServosterzo e sollevamento idraulico praticiStaffe per pesi anteriori e posteriori integrate
 Garanzia
-Raccoglierba posteriore 42A: 2 sacchi, 250 L7 bu
-Raccoglierba motorizzato
-Sistema di pacciamatura 42A: Kit per mulching standard
+Tosaerba 48A e 54A
+Raccoglierba posteriore
+Raccoglierba motorizzato Soffiatore Power Flow™
+Sistema di pacciamatura Sì
 Strigliatore anteriore
-Lama anteriore 112 cm44 in.
+Lama anteriore 122 cm48 in.
 Lama intermedia
-Turbina da neve 112 cm44 in.
+Turbina da neve 119 cm47 in.
 Spazzola rotativa
 Dissodatore rotativo
 Manicotto dell’attacco
@@ -1694,7 +1831,7 @@
 Rastrello raccoglipietre
 Irroratrice
 Spargitrice Traino posteriore, 80 kg175 lb
-Paraurti anteriore Opzione paraurti sagomato
+Paraurti anteriore Paraurti/contrappeso anteriore standard
 Protezione spazzola Sì
 Protezione dalle intemperie
 Copertura parasole
@@ -1705,66 +1842,259 @@
 Caricatore frontale
 Altre attrezzature
 Strumenti con traino posteriore
-Tosaerba
-Altezza 117 cm46 in.
-Lunghezza totale 182,9 cm72 in.
-Passo 125,5 cm49,4 in.
-Larghezza con il tosaerba 42A: 128 cm50,5 in.42M: 111,8 cm44 in.
-Larghezza con tosaerba (deflettore sollevato per immagazzinamento) 42A: 131 cm51,4 in.
-Larghezza senza il tosaerba 96,5 cm38 in.
-Peso Piatto tosaerba 42A, senza carburante: 252 kg556 lbPiatto tosaerba 42M, senza carburante: 261 kg575 lb
+Altezza 132,7 cm52,25 in.
+Lunghezza totale 201 cm79 in.
+Passo 130 cm51,2 in.
+Larghezza con il tosaerba 48A: 159 cm62,5 in.54A: 174 cm68,4 in.
+Larghezza con tosaerba (deflettore sollevato per immagazzinamento) 48A: 136 cm53,6 in.54A: 151 cm59,4 in.
+Larghezza senza il tosaerba 104,1 cm43 in.
+Peso Tosaerba 48A, senza carburante: 361 kg797 lbTosaerba 54A, senza carburante: 365 kg805 lb
 Posizione produzione Horicon (Wisconsin), USA
 Dati Raccolti 27 luglio 2020</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>1751</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\X350.jpg</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x300/x350/</t>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\X590.jpg</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x500/x590/</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>X167R</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Trattorini</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7196</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Innesto del piatto: elettrico
+Capacità di raccolta: 300 litri
+Sedile: standard a schienale alto
+Kit per mulching: opzionale
+Paraurti: Standard
+Specifiche
+John Deere X167R Trattorini
+Motore - Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3.050 giri/min (±100): 12,36 kW
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Motore -  Produttore/Modello 40N877 (M40)
+Tipo di gruppo cambio/differenziale Idrostatico, due ruote motrici
+Transasse - Comando Due pedali affiancati
+Pneumatici posteriori 18x8,5-8
+Tipo sistema di sollevamento Leva dell'impugnatura a molla
+Larghezza di taglio 107 cm42 in.
+Garanzia
+Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3.050 giri/min (±100): 12,36 kW
+Cilindrata 656 cc40 cu in.
+Produttore/Modello 40N877 (M40)
+Tipo Valvola in testa (OHV), lubrificazione a piena pressione, filtro olio
+Cilindri Due a V
+Regolatore Meccanico
+Comando velocità/starter Leva singola con ritorno a molla sullo starter
+Impianto di raffreddamento Aria
+Filtro aria Cartuccia
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Tipo Benzina
+Mandata del carburante Pompa a impulsi, carburatore
+Indicatore livello carburante Indicatore visivo
+Posizione del serbatoio carburante Posteriore
+Bocchettone di rifornimento carburante Centrale, 4,45 cm1,75 in.
+Capacità serbatoio carburante 8 L2,1 U.S. gal.
+Batteria 12 V300 CCA
+Sistema di carica Regolato, 8 amp
+Motorino di avviamento motore Tipo Bendix
+Contaore Sì
+Fari anteriori Due standard, a incandescenza
+Luci di coda o catarinfrangente No
+Retroilluminazione No
+Luci di lavoro posteriori No
+Presa da 12 V No
+Tipo Idrostatico, due ruote motrici
+Comando Due pedali affiancati
+CruiseControl No
+Scambiatore di calore dell'olio Alette e ventola su transaxle
+Filtro olio Sì, non riparabile
+Bloccaggio del differenziale No
+Velocità di avanzamento 0-8,4 km/h0-5,2 mph
+Velocità di retromarcia 0-4,8 km/h0-3,0 mph
+Freni Disco a bagno d'olio interno
+Telaio Acciaio saldato su tutta la lunghezza
+Vernice di fondo/vernice Elettroforesi/polvere
+Contrappeso No
+Attacco femmina No
+Assale anteriore Ghisa
+Boccole degli alberini No
+Pneumatici anteriori 15x6-6
+Pneumatici posteriori 18x8,5-8
+Materiale del cofano Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammacca
+Materiale del piatto di taglio Acciaio stampato
+Tappetini Sì, con canalette per i detriti
+Vano portaoggetti Vano portaoggetti con coperchio
+Etichetta adesiva con intervalli di manutenzione No
+Maniglie/impugnature parafango No
+Portatazza Sì
+Montaggio attrezzatura CargO Mount™ anteriore
+Tipo Manuale, sterzatura a due ruote
+Sterzo sulle quattro ruote Non disponibile su questo modello
+Volante Diametro modello Deluxe: 35,6 cm14 in.
+Volante inclinabile No
+Raggio di sterzata 55,2 cm21,75 in.
+Raggio cerchio non tagliato 71,1 cm28 in.
+Tipo Monoblocco
+Altezza schienale 38 cm15 in.
+Braccioli No
+Regolazione longitudinale A operatore seduto, 14 cm5,5 in.
+Sospensione del sedile Inclinabile, due molle a spirale
+Tipo Leva dell'impugnatura a molla
+Attacchi idraulici No
+Altezza di taglio del tosaerba 13 posizioni, 2,5-10,2 cm1-4 in.
+Incrementi altezza di taglio 0,64 cm0,25 in.
+Altezza di taglio predefinita No
+Tipo Scarico posteriore
+Larghezza di taglio 107 cm42 in.
+Struttura Cassa del piatto in acciaio stampato
+Materiale piatto di taglio Acciaio, 11 gauge3 mm0,120 in.
+Presa di lavaggio del tosaerba Sì, due
+Sistema di trasmissione tosaerba PTO elettrica
+Ruote tosaerba Quattro
+Regolazione ruote tosaerba Un bullone
+Regolazione livello del tosaerba Piatto con livellamento semplice
+Tipo Slittamento sotto il trattore
+Bracci delle parallele anteriori Clip a molla
+Bracci delle parallele posteriori Due clip a molla
+Rotazione ruote tosaerba No
+Sistema di trasmissione Cinghia singola
+Conforme agli standard ANSI
+Conforme agli standard OPEI
+Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
+Video sulla sicurezza No
+Note Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammaccaPrimer e finitura con vernice in polvere duraturiVolante Deluxe per lavorare più comodamente: 36 cm14 in.
+Garanzia
+Tosaerba
+Raccoglierba posteriore 300 L8,5 bu
+Raccoglierba motorizzato
+Sistema di pacciamatura Sì
+Strigliatore anteriore
+Lama anteriore 125 cm49 in.
+Lama intermedia
+Turbina da neve
+Spazzola rotativa 120 cm47 in.
+Dissodatore rotativo
+Manicotto dell’attacco
+Attacco a 3 punti
+Presa di forza (PTO) posteriore
+Aratro a versoio
+Raschiatore
+Coltivatore
+Lama posteriore
+Erpice a dischi
+Rastrello raccoglipietre
+Irroratrice
+Spargitrice Solo traino posteriore, 80 kg175 lb
+Paraurti anteriore Incluso
+Protezione spazzola
+Protezione dalle intemperie
+Copertura parasole
+Attacco gancio posteriore
+Portabenna
+Striatura erba
+Pala per trattore
+Caricatore frontale
+Altre attrezzature
+Strumenti con traino posteriore
+Altezza 102 cm40 in.
+Lunghezza totale 254 cm100 in.
+Passo 124,2 cm48,9 in.
+Larghezza con il tosaerba 111 cm43,7 in.
+Larghezza con tosaerba (deflettore sollevato per immagazzinamento)
+Larghezza senza il tosaerba
+Peso Con piatto tosaerba, senza carburante: 246 kg542 lb
+Posizione produzione
+Dati Raccolti 30 luglio 2020</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\X167R.jpg</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x167r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>X147R</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>6376</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Innesto del piatto: elettrico
 Capacità di raccolta: 300 litri
@@ -1912,131 +2242,77 @@
 Dati Raccolti 1-nov-2021</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>1751</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>C:\ImmaginiDanea\jd\X147R.jpg</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x147r/</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>9009A TerrainCut</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Macchine da tee, approach e rough</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Cinque unità di taglio rotative indipendenti da 68,58 cm con larghezza di taglio di 2,74 m
-Scocca a forma profonda con scivolo dello scarico posteriore esclusivo
-Sistema a spine per regolare l'altezza di taglio comodamente senza l'uso di attrezzi
-LoadMatch™ per affrontare al meglio le salite e ottimizzare la qualità di taglio
-Specifiche
-John Deere 9009A TerrainCut Macchine da tee, approach e rough
-Diesel a 4 cilindri turbocompresso a iniezione diretta 55.1 CV (41.1*kW)
-Velocità di taglio 0 – 8 mph (0-12,8 km/h)
-Larghezza di taglio totale 108 in (274 cm)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\9009A-TerrainCut.jpg</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba-golf-sport/macchine-da-tee-approach-e-rough/9009a-terraincut/</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>X117R</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>X127</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5285</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5034</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Innesto del piatto: meccanico
-Capacità di raccolta: 300 litri
-Sedile: Standard
-Kit per mulching: opzionale
+Sedile: schienale alto aperto
+Copertura per mulching: Standard
+Cruise control: Standard
+Sistema di raccolta: opzionale
 Paraurti: opzionale
 Specifiche
-John Deere X117R Trattorini
-Motore - Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3.100 giri/min (±100): 10,84 kW
+John Deere X127 Trattorini
+Motore - Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3050 giri/min (±100): 12,36 kW
 Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
-Motore -  Produttore/Modello 31R977 (M31)
+Motore -  Produttore/Modello 40N877 (M40)
 Tipo di gruppo cambio/differenziale Idrostatico, due ruote motrici
 Transasse - Comando Due pedali affiancati
-Pneumatici posteriori 18x8,5-8
+Pneumatici posteriori 20x8-8
 Tipo sistema di sollevamento Leva dell'impugnatura a molla
-Larghezza di taglio 92 cm36 in.
+Larghezza di taglio 107 cm42 in.
 Garanzia
-Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3.100 giri/min (±100): 10,84 kW
-Cilindrata 500 cc30,5 cu in.
-Produttore/Modello 31R977 (M31)
+Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3050 giri/min (±100): 12,36 kW
+Cilindrata 656 cc40 cu in.
+Produttore/Modello 40N877 (M40)
 Tipo Valvola in testa (OHV), lubrificazione a piena pressione, filtro olio
-Cilindri Uno
+Cilindri Due a V
 Regolatore Meccanico
 Comando velocità/starter Leva singola con ritorno a molla sullo starter
 Impianto di raffreddamento Aria
@@ -2044,10 +2320,10 @@
 Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
 Tipo Benzina
 Mandata del carburante Pompa a impulsi, carburatore
-Indicatore livello carburante Indicatore visivo
-Posizione del serbatoio carburante Posteriore
+Indicatore livello carburante Sul cruscotto
+Posizione del serbatoio carburante Retro
 Bocchettone di rifornimento carburante Centrale, 4,45 cm1,75 in.
-Capacità serbatoio carburante 8 L2,1 U.S. gal.
+Capacità serbatoio carburante 9 L2,4 U.S. gal.
 Batteria 12 V300 CCA
 Sistema di carica Regolato, 8 amp
 Motorino di avviamento motore Tipo Bendix
@@ -2059,13 +2335,13 @@
 Presa da 12 V No
 Tipo Idrostatico, due ruote motrici
 Comando Due pedali affiancati
-CruiseControl No
+CruiseControl Sì
 Scambiatore di calore dell'olio Alette e ventola su transaxle
 Filtro olio Sì, non riparabile
 Bloccaggio del differenziale No
-Velocità di avanzamento 0-8,4 km/h0-5,2 mph
-Velocità di retromarcia 0-4,8 km/h0-3,0 mph
-Freni Disco a bagno d'olio interno
+Velocità di avanzamento 0-8,9 km/h0-5,5 mph
+Velocità di retromarcia 0-5,2 km/h0-3,2 mph
+Freni Interni a disco a bagno d'olio
 Telaio Acciaio saldato su tutta la lunghezza
 Vernice di fondo/vernice Elettroforesi/polvere
 Contrappeso No
@@ -2073,38 +2349,39 @@
 Assale anteriore Ghisa
 Boccole degli alberini No
 Pneumatici anteriori 15x6-6
-Pneumatici posteriori 18x8,5-8
+Pneumatici posteriori 20x8-8
 Materiale del cofano Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammacca
 Materiale del piatto di taglio Acciaio stampato
 Tappetini Sì, con canalette per i detriti
-Vano portaoggetti No
+Vano portaoggetti Vano portaoggetti con coperchio
 Etichetta adesiva con intervalli di manutenzione No
 Maniglie/impugnature parafango No
 Portatazza Sì
-Montaggio attrezzatura CargO Mount™ anteriore
+Montaggio attrezzatura CargO Mount™
+Massima capacità di traino 227 kg500 lb
 Tipo Manuale, sterzatura a due ruote
 Sterzo sulle quattro ruote Non disponibile su questo modello
 Volante Diametro modello standard: 30,5 cm12 in.
 Volante inclinabile No
-Raggio di sterzata 55,2 cm21,75 in.
-Raggio cerchio non tagliato 68,6 cm27 in.
-Tipo Monoblocco
-Altezza schienale 28 cm11 in.
+Raggio di sterzata 45,7 cm18 in.
+Raggio cerchio non tagliato 63,5 cm25 in.
+Tipo Due pezzi
+Altezza schienale 38 cm15 in.
 Braccioli No
 Regolazione longitudinale A operatore seduto, 14 cm5,5 in.
-Sospensione del sedile Inclinabile, due molle a spirale
+Sospensione del sedile Inclinabile, due sospensioni a molla
 Tipo Leva dell'impugnatura a molla
 Attacchi idraulici No
-Altezza di taglio del tosaerba 13 posizioni, 2,5-9 cm1-3,5 in.
+Altezza di taglio del tosaerba 13 posizioni, 2,5-10,2 cm1-4 in.
 Incrementi altezza di taglio 0,64 cm0,25 in.
 Altezza di taglio predefinita No
-Tipo Scarico posteriore
-Larghezza di taglio 92 cm36 in.
-Struttura Cassa del piatto in acciaio stampato
-Materiale piatto di taglio Acciaio, 12 gauge2,7 mm0,105 in.
+Tipo Scarico laterale
+Larghezza di taglio 107 cm42 in.
+Struttura Cassa del piatto tosaerba in acciaio stampato
+Materiale piatto di taglio Acciaio, 13 gauge2,3 mm0,090 in.
 Presa di lavaggio del tosaerba Sì
 Sistema di trasmissione tosaerba PTO manuale
-Ruote tosaerba Zero
+Ruote tosaerba Due
 Regolazione ruote tosaerba Un bullone
 Regolazione livello del tosaerba Piatto con livellamento semplice
 Tipo Slittamento sotto il trattore
@@ -2116,12 +2393,12 @@
 Conforme agli standard OPEI
 Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
 Video sulla sicurezza No
-Note Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammaccaPrimer e finitura con vernice in polvere duraturiTelaio in acciaio interamente saldato
+Note Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammaccaPrimer e finitura con vernice a polvere duraturiTelaio in acciaio interamente saldato
 Garanzia
 Tosaerba
-Raccoglierba posteriore 300 L8,5 bu
+Raccoglierba posteriore A due cesti, 230 L6,5 bu
 Raccoglierba motorizzato
-Sistema di pacciamatura Sì
+Sistema di pacciamatura Coperchio per mulching o tappo a elevate prestazioni
 Strigliatore anteriore
 Lama anteriore 125 cm49 in.
 Lama intermedia
@@ -2138,7 +2415,7 @@
 Erpice a dischi
 Rastrello raccoglipietre
 Irroratrice
-Spargitrice Solo traino posteriore, 80 kg175 lb
+Spargitrice Solo trainato, 80 kg175 lb
 Paraurti anteriore Paraurti anteriore sagomato
 Protezione spazzola
 Protezione dalle intemperie
@@ -2148,125 +2425,67 @@
 Striatura erba
 Pala per trattore
 Caricatore frontale
-Altre attrezzature
+Altre attrezzature Staffa per zavorra posteriore
 Strumenti con traino posteriore
-Altezza 103 cm40,6 in.
-Lunghezza totale 244 cm96 in.
-Passo 124,2 cm48,9 in.
-Larghezza con il tosaerba 96 cm37,8 in.
-Larghezza con tosaerba (deflettore sollevato per immagazzinamento)
-Larghezza senza il tosaerba
-Peso Con piatto tosaerba, senza carburante: 234 kg516 lb
-Posizione produzione
-Dati Raccolti 30 luglio 2020</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+Altezza 1118 mm44 in.
+Lunghezza totale 1770 mm69,7 in.
+Passo 1242 mm48,9 in.
+Larghezza con il tosaerba 1402 mm55,2 in.
+Larghezza con tosaerba (deflettore sollevato per immagazzinamento) 1181 mm46,5 in.
+Larghezza senza il tosaerba 996 mm39,2 in.
+Peso Con piatto tosaerba, senza carburante: 205 kg453 lb
+Posizione produzione Greeneville, Tennessee, USA
+Dati Raccolti 1-nov-2021</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>1751</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\X117R.jpg</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x117r/</t>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\X127.jpg</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x127/</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Z315E</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>X167</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.640</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Facilità di utilizzo
-Elevata manovrabilità
-Struttura robusta
-Maggiori velocità di taglio: 11,3 km/h
-12.1 kW (16,2 CV)
-Piatto tosaerba Accel Deep™ da 107 cm
-</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\Z315E.jpg</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z315e/</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>X167</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Trattorini</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>6683</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Innesto del piatto: elettrico
 Sedile: schienale alto aperto
@@ -2415,311 +2634,54 @@
 Dati Raccolti 1-nov-2021</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>1751</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>C:\ImmaginiDanea\jd\X167.jpg</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x167/</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>X167R</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>X107</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7196</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Innesto del piatto: elettrico
-Capacità di raccolta: 300 litri
-Sedile: standard a schienale alto
-Kit per mulching: opzionale
-Paraurti: Standard
-Specifiche
-John Deere X167R Trattorini
-Motore - Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3.050 giri/min (±100): 12,36 kW
-Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
-Motore -  Produttore/Modello 40N877 (M40)
-Tipo di gruppo cambio/differenziale Idrostatico, due ruote motrici
-Transasse - Comando Due pedali affiancati
-Pneumatici posteriori 18x8,5-8
-Tipo sistema di sollevamento Leva dell'impugnatura a molla
-Larghezza di taglio 107 cm42 in.
-Garanzia
-Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3.050 giri/min (±100): 12,36 kW
-Cilindrata 656 cc40 cu in.
-Produttore/Modello 40N877 (M40)
-Tipo Valvola in testa (OHV), lubrificazione a piena pressione, filtro olio
-Cilindri Due a V
-Regolatore Meccanico
-Comando velocità/starter Leva singola con ritorno a molla sullo starter
-Impianto di raffreddamento Aria
-Filtro aria Cartuccia
-Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
-Tipo Benzina
-Mandata del carburante Pompa a impulsi, carburatore
-Indicatore livello carburante Indicatore visivo
-Posizione del serbatoio carburante Posteriore
-Bocchettone di rifornimento carburante Centrale, 4,45 cm1,75 in.
-Capacità serbatoio carburante 8 L2,1 U.S. gal.
-Batteria 12 V300 CCA
-Sistema di carica Regolato, 8 amp
-Motorino di avviamento motore Tipo Bendix
-Contaore Sì
-Fari anteriori Due standard, a incandescenza
-Luci di coda o catarinfrangente No
-Retroilluminazione No
-Luci di lavoro posteriori No
-Presa da 12 V No
-Tipo Idrostatico, due ruote motrici
-Comando Due pedali affiancati
-CruiseControl No
-Scambiatore di calore dell'olio Alette e ventola su transaxle
-Filtro olio Sì, non riparabile
-Bloccaggio del differenziale No
-Velocità di avanzamento 0-8,4 km/h0-5,2 mph
-Velocità di retromarcia 0-4,8 km/h0-3,0 mph
-Freni Disco a bagno d'olio interno
-Telaio Acciaio saldato su tutta la lunghezza
-Vernice di fondo/vernice Elettroforesi/polvere
-Contrappeso No
-Attacco femmina No
-Assale anteriore Ghisa
-Boccole degli alberini No
-Pneumatici anteriori 15x6-6
-Pneumatici posteriori 18x8,5-8
-Materiale del cofano Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammacca
-Materiale del piatto di taglio Acciaio stampato
-Tappetini Sì, con canalette per i detriti
-Vano portaoggetti Vano portaoggetti con coperchio
-Etichetta adesiva con intervalli di manutenzione No
-Maniglie/impugnature parafango No
-Portatazza Sì
-Montaggio attrezzatura CargO Mount™ anteriore
-Tipo Manuale, sterzatura a due ruote
-Sterzo sulle quattro ruote Non disponibile su questo modello
-Volante Diametro modello Deluxe: 35,6 cm14 in.
-Volante inclinabile No
-Raggio di sterzata 55,2 cm21,75 in.
-Raggio cerchio non tagliato 71,1 cm28 in.
-Tipo Monoblocco
-Altezza schienale 38 cm15 in.
-Braccioli No
-Regolazione longitudinale A operatore seduto, 14 cm5,5 in.
-Sospensione del sedile Inclinabile, due molle a spirale
-Tipo Leva dell'impugnatura a molla
-Attacchi idraulici No
-Altezza di taglio del tosaerba 13 posizioni, 2,5-10,2 cm1-4 in.
-Incrementi altezza di taglio 0,64 cm0,25 in.
-Altezza di taglio predefinita No
-Tipo Scarico posteriore
-Larghezza di taglio 107 cm42 in.
-Struttura Cassa del piatto in acciaio stampato
-Materiale piatto di taglio Acciaio, 11 gauge3 mm0,120 in.
-Presa di lavaggio del tosaerba Sì, due
-Sistema di trasmissione tosaerba PTO elettrica
-Ruote tosaerba Quattro
-Regolazione ruote tosaerba Un bullone
-Regolazione livello del tosaerba Piatto con livellamento semplice
-Tipo Slittamento sotto il trattore
-Bracci delle parallele anteriori Clip a molla
-Bracci delle parallele posteriori Due clip a molla
-Rotazione ruote tosaerba No
-Sistema di trasmissione Cinghia singola
-Conforme agli standard ANSI
-Conforme agli standard OPEI
-Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
-Video sulla sicurezza No
-Note Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammaccaPrimer e finitura con vernice in polvere duraturiVolante Deluxe per lavorare più comodamente: 36 cm14 in.
-Garanzia
-Tosaerba
-Raccoglierba posteriore 300 L8,5 bu
-Raccoglierba motorizzato
-Sistema di pacciamatura Sì
-Strigliatore anteriore
-Lama anteriore 125 cm49 in.
-Lama intermedia
-Turbina da neve
-Spazzola rotativa 120 cm47 in.
-Dissodatore rotativo
-Manicotto dell’attacco
-Attacco a 3 punti
-Presa di forza (PTO) posteriore
-Aratro a versoio
-Raschiatore
-Coltivatore
-Lama posteriore
-Erpice a dischi
-Rastrello raccoglipietre
-Irroratrice
-Spargitrice Solo traino posteriore, 80 kg175 lb
-Paraurti anteriore Incluso
-Protezione spazzola
-Protezione dalle intemperie
-Copertura parasole
-Attacco gancio posteriore
-Portabenna
-Striatura erba
-Pala per trattore
-Caricatore frontale
-Altre attrezzature
-Strumenti con traino posteriore
-Altezza 102 cm40 in.
-Lunghezza totale 254 cm100 in.
-Passo 124,2 cm48,9 in.
-Larghezza con il tosaerba 111 cm43,7 in.
-Larghezza con tosaerba (deflettore sollevato per immagazzinamento)
-Larghezza senza il tosaerba
-Peso Con piatto tosaerba, senza carburante: 246 kg542 lb
-Posizione produzione
-Dati Raccolti 30 luglio 2020</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\X167R.jpg</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x167r/</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Z545R</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Trattorini</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>11756</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Facile da guidare
-Manovrabilità eccezionale
-Struttura robusta
-Velocità di taglio elevate: 14,5 km/h
-Motore da 15,3 kW, 724cc
-Piatto ad alta capacità da 122 cm (48“)
-Specifiche
-John Deere Z545R Trattorini
-Dimensioni area Oltre 8.000 m²
-Larghezza di taglio 48" ad alta capacità (122 cm)
-Potenza 16,1 kW / 3350 rpm
-Velocità Fino a 14,5 km/h (9 mph)</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\Z545R.jpg</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z545r/</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>X107</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Trattorini</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>4188</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Innesto del piatto: meccanico
 Sedile: Standard
@@ -2866,77 +2828,76 @@
 Dati Raccolti 30 luglio 2020</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>1751</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>C:\ImmaginiDanea\jd\X107.jpg</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x107/</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>X127</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>X117R</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5034</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5285</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Innesto del piatto: meccanico
-Sedile: schienale alto aperto
-Copertura per mulching: Standard
-Cruise control: Standard
-Sistema di raccolta: opzionale
+Capacità di raccolta: 300 litri
+Sedile: Standard
+Kit per mulching: opzionale
 Paraurti: opzionale
 Specifiche
-John Deere X127 Trattorini
-Motore - Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3050 giri/min (±100): 12,36 kW
+John Deere X117R Trattorini
+Motore - Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3.100 giri/min (±100): 10,84 kW
 Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
-Motore -  Produttore/Modello 40N877 (M40)
+Motore -  Produttore/Modello 31R977 (M31)
 Tipo di gruppo cambio/differenziale Idrostatico, due ruote motrici
 Transasse - Comando Due pedali affiancati
-Pneumatici posteriori 20x8-8
+Pneumatici posteriori 18x8,5-8
 Tipo sistema di sollevamento Leva dell'impugnatura a molla
-Larghezza di taglio 107 cm42 in.
+Larghezza di taglio 92 cm36 in.
 Garanzia
-Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3050 giri/min (±100): 12,36 kW
-Cilindrata 656 cc40 cu in.
-Produttore/Modello 40N877 (M40)
+Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3.100 giri/min (±100): 10,84 kW
+Cilindrata 500 cc30,5 cu in.
+Produttore/Modello 31R977 (M31)
 Tipo Valvola in testa (OHV), lubrificazione a piena pressione, filtro olio
-Cilindri Due a V
+Cilindri Uno
 Regolatore Meccanico
 Comando velocità/starter Leva singola con ritorno a molla sullo starter
 Impianto di raffreddamento Aria
@@ -2944,10 +2905,10 @@
 Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
 Tipo Benzina
 Mandata del carburante Pompa a impulsi, carburatore
-Indicatore livello carburante Sul cruscotto
-Posizione del serbatoio carburante Retro
+Indicatore livello carburante Indicatore visivo
+Posizione del serbatoio carburante Posteriore
 Bocchettone di rifornimento carburante Centrale, 4,45 cm1,75 in.
-Capacità serbatoio carburante 9 L2,4 U.S. gal.
+Capacità serbatoio carburante 8 L2,1 U.S. gal.
 Batteria 12 V300 CCA
 Sistema di carica Regolato, 8 amp
 Motorino di avviamento motore Tipo Bendix
@@ -2959,13 +2920,13 @@
 Presa da 12 V No
 Tipo Idrostatico, due ruote motrici
 Comando Due pedali affiancati
-CruiseControl Sì
+CruiseControl No
 Scambiatore di calore dell'olio Alette e ventola su transaxle
 Filtro olio Sì, non riparabile
 Bloccaggio del differenziale No
-Velocità di avanzamento 0-8,9 km/h0-5,5 mph
-Velocità di retromarcia 0-5,2 km/h0-3,2 mph
-Freni Interni a disco a bagno d'olio
+Velocità di avanzamento 0-8,4 km/h0-5,2 mph
+Velocità di retromarcia 0-4,8 km/h0-3,0 mph
+Freni Disco a bagno d'olio interno
 Telaio Acciaio saldato su tutta la lunghezza
 Vernice di fondo/vernice Elettroforesi/polvere
 Contrappeso No
@@ -2973,39 +2934,38 @@
 Assale anteriore Ghisa
 Boccole degli alberini No
 Pneumatici anteriori 15x6-6
-Pneumatici posteriori 20x8-8
+Pneumatici posteriori 18x8,5-8
 Materiale del cofano Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammacca
 Materiale del piatto di taglio Acciaio stampato
 Tappetini Sì, con canalette per i detriti
-Vano portaoggetti Vano portaoggetti con coperchio
+Vano portaoggetti No
 Etichetta adesiva con intervalli di manutenzione No
 Maniglie/impugnature parafango No
 Portatazza Sì
-Montaggio attrezzatura CargO Mount™
-Massima capacità di traino 227 kg500 lb
+Montaggio attrezzatura CargO Mount™ anteriore
 Tipo Manuale, sterzatura a due ruote
 Sterzo sulle quattro ruote Non disponibile su questo modello
 Volante Diametro modello standard: 30,5 cm12 in.
 Volante inclinabile No
-Raggio di sterzata 45,7 cm18 in.
-Raggio cerchio non tagliato 63,5 cm25 in.
-Tipo Due pezzi
-Altezza schienale 38 cm15 in.
+Raggio di sterzata 55,2 cm21,75 in.
+Raggio cerchio non tagliato 68,6 cm27 in.
+Tipo Monoblocco
+Altezza schienale 28 cm11 in.
 Braccioli No
 Regolazione longitudinale A operatore seduto, 14 cm5,5 in.
-Sospensione del sedile Inclinabile, due sospensioni a molla
+Sospensione del sedile Inclinabile, due molle a spirale
 Tipo Leva dell'impugnatura a molla
 Attacchi idraulici No
-Altezza di taglio del tosaerba 13 posizioni, 2,5-10,2 cm1-4 in.
+Altezza di taglio del tosaerba 13 posizioni, 2,5-9 cm1-3,5 in.
 Incrementi altezza di taglio 0,64 cm0,25 in.
 Altezza di taglio predefinita No
-Tipo Scarico laterale
-Larghezza di taglio 107 cm42 in.
-Struttura Cassa del piatto tosaerba in acciaio stampato
-Materiale piatto di taglio Acciaio, 13 gauge2,3 mm0,090 in.
+Tipo Scarico posteriore
+Larghezza di taglio 92 cm36 in.
+Struttura Cassa del piatto in acciaio stampato
+Materiale piatto di taglio Acciaio, 12 gauge2,7 mm0,105 in.
 Presa di lavaggio del tosaerba Sì
 Sistema di trasmissione tosaerba PTO manuale
-Ruote tosaerba Due
+Ruote tosaerba Zero
 Regolazione ruote tosaerba Un bullone
 Regolazione livello del tosaerba Piatto con livellamento semplice
 Tipo Slittamento sotto il trattore
@@ -3017,12 +2977,12 @@
 Conforme agli standard OPEI
 Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
 Video sulla sicurezza No
-Note Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammaccaPrimer e finitura con vernice a polvere duraturiTelaio in acciaio interamente saldato
+Note Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammaccaPrimer e finitura con vernice in polvere duraturiTelaio in acciaio interamente saldato
 Garanzia
 Tosaerba
-Raccoglierba posteriore A due cesti, 230 L6,5 bu
+Raccoglierba posteriore 300 L8,5 bu
 Raccoglierba motorizzato
-Sistema di pacciamatura Coperchio per mulching o tappo a elevate prestazioni
+Sistema di pacciamatura Sì
 Strigliatore anteriore
 Lama anteriore 125 cm49 in.
 Lama intermedia
@@ -3039,7 +2999,7 @@
 Erpice a dischi
 Rastrello raccoglipietre
 Irroratrice
-Spargitrice Solo trainato, 80 kg175 lb
+Spargitrice Solo traino posteriore, 80 kg175 lb
 Paraurti anteriore Paraurti anteriore sagomato
 Protezione spazzola
 Protezione dalle intemperie
@@ -3049,131 +3009,29 @@
 Striatura erba
 Pala per trattore
 Caricatore frontale
-Altre attrezzature Staffa per zavorra posteriore
+Altre attrezzature
 Strumenti con traino posteriore
-Altezza 1118 mm44 in.
-Lunghezza totale 1770 mm69,7 in.
-Passo 1242 mm48,9 in.
-Larghezza con il tosaerba 1402 mm55,2 in.
-Larghezza con tosaerba (deflettore sollevato per immagazzinamento) 1181 mm46,5 in.
-Larghezza senza il tosaerba 996 mm39,2 in.
-Peso Con piatto tosaerba, senza carburante: 205 kg453 lb
-Posizione produzione Greeneville, Tennessee, USA
-Dati Raccolti 1-nov-2021</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+Altezza 103 cm40,6 in.
+Lunghezza totale 244 cm96 in.
+Passo 124,2 cm48,9 in.
+Larghezza con il tosaerba 96 cm37,8 in.
+Larghezza con tosaerba (deflettore sollevato per immagazzinamento)
+Larghezza senza il tosaerba
+Peso Con piatto tosaerba, senza carburante: 234 kg516 lb
+Posizione produzione
+Dati Raccolti 30 luglio 2020</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>1751</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\X127.jpg</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x127/</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Z740R</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>ZTrak™ a benzina</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16,2 kW (21,7 CV) a 3.100 giri/min (Stage V)
-Velocità di avanzamento: 13,7 km/h (8,6 mph)
-Larghezze di taglio: 122 cm (48’’) o 137 cm (54’’)
-Pneumatici radiali Airless MichelXTweel Turf opzionali
-</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\Z740R.jpg</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-raggio-di-sterzata-zero/z740r/</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Z950R</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>ZTrak™ a benzina</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19 kW (25,5 CV) a 3.250 giri/min (Stage V)
-Velocità di avanzamento: 19,3 km/h (12 mph)
-Larghezze di taglio: 152 cm (60’’) o 183 cm (72’’)
-Pneumatici radiali Airless MichelXTweel Turf opzionali
-</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>Macchine</t>
@@ -3181,19 +3039,19 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\Z950R.jpg</t>
+          <t>C:\ImmaginiDanea\jd\X117R.jpg</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-raggio-di-sterzata-zero/z950r/</t>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x117r/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Z997R</t>
+          <t>X370</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3203,66 +3061,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ZTrak™ diesel</t>
+          <t>Trattorini</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8316</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">27,5 kW (37,4 CV) a 2.800 giri/min (Stage V)
-Velocità di avanzamento: 18 km/h (11,5 mph)
-Larghezze di taglio: 152 cm (60’’) o 183 cm (72’’)
-Pneumatici radiali Airless MichelXTweel Turf opzionali
-</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\Z997R.jpg</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-raggio-di-sterzata-zero/z997r/</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>X370</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Trattorini</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>8316</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
         <is>
           <t>Innesto del piatto: elettrico
 Pedali Twin Touch
@@ -3408,105 +3215,54 @@
 Dati Raccolti 27 luglio 2020</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>1751</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>C:\ImmaginiDanea\jd\X370.jpg</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>https://www.deere.it/it/tosaerba/trattorini/serie-x300/x370/</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Z994R</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>ZTrak™ diesel</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18,4 kW (24,7 CV) a 3.200 giri/min (Stage V)
-Velocità di avanzamento: 17 km/h (10,5 mph)
-Larghezze di taglio: 137 cm (54’’) o 152 cm (60’’)
-Pneumatici radiali Airless MichelXTweel Turf opzionali
-</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\Z994R.jpg</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-raggio-di-sterzata-zero/z994r/</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>X380</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>8658</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Innesto del piatto: elettrico
 Pedali Twin Touch
@@ -3652,6 +3408,262 @@
 Dati Raccolti 27 luglio 2020</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\X380.jpg</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x300/x380/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>X350</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Trattorini</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6772</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Innesto del piatto: elettrico
+Pedali Twin Touch
+Cruise Control
+Scelta tra diversi piatti tosaerba
+Specifications
+John Deere X350 Trattorini
+Motore - Potenza A 3100 giri/min, 14,1 kW
+Motore -  Produttore/Modello FR651V
+Tipo di gruppo cambio/differenziale K46 idrostatico integrato con trasmissione
+Transasse - Comando Pedali Twin Touch™
+Pneumatici posteriori 20x10-8
+Tipo sistema di sollevamento Con acceleratore a pedale e supporto a molla regolabile opzionale
+Larghezza di taglio 107 cm42 in.
+Garanzia
+Cambio olio
+Potenza A 3100 giri/min, 14,1 kW
+Cilindrata 726 cc44,3 cu in.
+Produttore/Modello FR651V
+Tipo Valvola in testa (OHV), lubrificazione a piena pressione, filtro olio
+Cilindri Accoppiati a V, rivestimenti in ghisa
+Regolatore Meccanico
+Comando velocità/starter Leve separate, ritorno starter automatico
+Impianto di raffreddamento Aria
+Filtro aria A secco, sostituibile
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Tipo Benzina
+Mandata del carburante Pompa a impulsi, carburatore
+Indicatore livello carburante Indicatore su cruscotto
+Posizione del serbatoio carburante Posteriore
+Bocchettone di rifornimento carburante Sul parafango sinistro, 7,6 cm3 in.
+Capacità serbatoio carburante 12,5 L3,3 U.S. gal.
+Batteria 12 V340 CCA
+Sistema di carica Alternatore a volano, regolato, 12 amp
+Motorino di avviamento motore Bendix
+Contaore Sì
+Fari anteriori Due standard
+Luci di coda o catarinfrangente No
+Retroilluminazione No
+Luci di lavoro posteriori No
+Presa da 12 V No
+Tipo K46 idrostatico integrato con trasmissione
+Comando Pedali Twin Touch™
+CruiseControl Sì, leva sul cruscotto
+Scambiatore di calore dell'olio Alette e ventola su transaxle
+Filtro olio Sì, interno
+Bloccaggio del differenziale No
+Velocità di avanzamento 0-8,2 km/h0-5,1 mph
+Velocità di retromarcia 0-5,9 km/h0-3,7 mph
+Freni Disco interno a bagno d'olio
+Telaio Saldato rinforzato
+Vernice di fondo/vernice Elettroforesi/polvere
+Contrappeso Opzionale anteriore e opzionale posteriore, ciascuna sostiene fino a due pesi Quik-Tatch™, 19 kg42 lb
+Attacco femmina No
+Assale anteriore Ghisa
+Boccole degli alberini No
+Pneumatici anteriori 15x6-6
+Pneumatici posteriori 20x10-8
+Materiale del cofano Il materiale completamente integrato, stampato in tinta attutisce il rumore, non si arrugginisce o ammacca.
+Materiale del piatto di taglio Acciaio stampato
+Tappetini Gomma antiscivolo
+Vano portaoggetti Sì, cassetta portattrezzi sotto il sedile e coperta
+Etichetta adesiva con intervalli di manutenzione Sì
+Maniglie/impugnature parafango No
+Portatazza Sì
+Montaggio attrezzatura Sì, rinforzato
+Tipo Manuale, a settore e a pignone
+Sterzo sulle quattro ruote Non disponibile su questo modello
+Volante 35,6 cm14 in.
+Volante inclinabile No
+Raggio di sterzata 40,6 cm16 in.
+Raggio cerchio non tagliato Piatto tosaerba 42A: 66 cm26 in.Piatto tosaerba 42M, a destra: 58,4 cm23 in.Piatto tosaerba 42M, a sinistra: 68,6 cm27 in.
+Tipo Schienale aperto con impugnatura
+Altezza schienale 38 cm15 in.
+Braccioli No
+Regolazione longitudinale Con operatore seduto, guida di scorrimento, 15 posizioni, 17 cm6,6 in.
+Sospensione del sedile Due molle a spirale, regolazione in tre posizioni senza attrezzi in base al peso dell'operatore
+Tipo Con acceleratore a pedale e supporto a molla regolabile opzionale
+Attacchi idraulici No
+Altezza di taglio del tosaerba 13 posizioni, 2,5-10,2 cm1-4 in.
+Incrementi altezza di taglio 0,64 cm0,25 in.
+Altezza di taglio predefinita Sì
+Tipo Opzioni scarico laterale e mulching
+Larghezza di taglio 107 cm42 in.
+Struttura Cassa del piatto di taglio in acciaio stampato
+Materiale piatto di taglio 12 gauge2,7 mm0,105 in.
+Presa di lavaggio del tosaerba Sì
+Sistema di trasmissione tosaerba Cinghia in linea, PTO elettrica
+Ruote tosaerba Due
+Regolazione ruote tosaerba A quattro posizioni, richiesto attrezzo
+Regolazione livello del tosaerba Condotti di regolazione di precisione e volantino di livellamento del piatto di taglio a bordo
+Tipo Slittamento sotto il trattore
+Bracci delle parallele anteriori Fissati in due punti con spine elastiche
+Bracci delle parallele posteriori Due perni e fermagli elastici
+Rotazione ruote tosaerba No
+Sistema di trasmissione 42A: Cinghia singola42M: Cinghia doppia
+Conforme agli standard ANSI Sì
+Conforme agli standard OPEI Sì
+Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
+Video sulla sicurezza
+Note Il materiale completamente integrato, stampato in tinta attutisce il rumore, non si arrugginisce o ammacca.Primer e finitura con vernice in polvere elettroforetici duraturi
+Garanzia
+Raccoglierba posteriore 42A: 2 sacchi, 250 L7 bu
+Raccoglierba motorizzato
+Sistema di pacciamatura 42A: Kit per mulching standard
+Strigliatore anteriore
+Lama anteriore 112 cm44 in.
+Lama intermedia
+Turbina da neve 112 cm44 in.
+Spazzola rotativa
+Dissodatore rotativo
+Manicotto dell’attacco
+Attacco a 3 punti
+Presa di forza (PTO) posteriore
+Aratro a versoio
+Raschiatore
+Coltivatore
+Lama posteriore
+Erpice a dischi
+Rastrello raccoglipietre
+Irroratrice
+Spargitrice Traino posteriore, 80 kg175 lb
+Paraurti anteriore Opzione paraurti sagomato
+Protezione spazzola Sì
+Protezione dalle intemperie
+Copertura parasole
+Attacco gancio posteriore
+Portabenna
+Striatura erba
+Pala per trattore
+Caricatore frontale
+Altre attrezzature
+Strumenti con traino posteriore
+Tosaerba
+Altezza 117 cm46 in.
+Lunghezza totale 182,9 cm72 in.
+Passo 125,5 cm49,4 in.
+Larghezza con il tosaerba 42A: 128 cm50,5 in.42M: 111,8 cm44 in.
+Larghezza con tosaerba (deflettore sollevato per immagazzinamento) 42A: 131 cm51,4 in.
+Larghezza senza il tosaerba 96,5 cm38 in.
+Peso Piatto tosaerba 42A, senza carburante: 252 kg556 lbPiatto tosaerba 42M, senza carburante: 261 kg575 lb
+Posizione produzione Horicon (Wisconsin), USA
+Dati Raccolti 27 luglio 2020</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\X350.jpg</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x300/x350/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Z530M</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Trattorini</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10152</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Facile da guidare
+Manovrabilità eccezionale
+Struttura robusta
+Velocità di taglio elevate: 12,9 km/h
+Motore da 16,7 kW, 726cc
+Piatto Accel Deep™ da 122 cm (48“)
+Specifiche
+John Deere Z530M Trattorini
+Dimensioni area Oltre 8.000 m²
+Larghezza di taglio 48" Accel Deep (122 cm)
+Potenza 16,7 kW (22,4 CV) a 3.350 giri/min*
+Velocità Fino a 13,7 km/h8,5 mph</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>John Deere</t>
@@ -3669,37 +3681,153 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\X380.jpg</t>
+          <t>C:\ImmaginiDanea\jd\Z530M.jpg</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x300/x380/</t>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z530m/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Z320R</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Trattorini</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.538</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facilità di utilizzo
+Elevata manovrabilità
+Struttura robusta
+Maggiori velocità di taglio: 11,3 km/h
+12.7 kW (17 CV)
+Piatto tosaerba Accel Deep™ da 107 cm
+</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\Z320R.jpg</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z320r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Z320M</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Trattorini</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.196</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facilità di utilizzo
+Elevata manovrabilità
+Struttura robusta
+Maggiori velocità di taglio: 11,3 km/h
+12.7 kW (17 CV)
+Piatto tosaerba Accel Deep™ da 107 cm
+</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\jd\Z320M.jpg</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z320m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>X350R</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>8830</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Innesto del piatto: elettrico
 Pedali Twin Touch
@@ -3845,150 +3973,29 @@
 Dati Raccolti 27 luglio 2020</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>1751</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>C:\ImmaginiDanea\jd\X350R.jpg</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>https://www.deere.it/it/tosaerba/trattorini/serie-x300/x350r/</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Z530M</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Trattorini</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>10152</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Facile da guidare
-Manovrabilità eccezionale
-Struttura robusta
-Velocità di taglio elevate: 12,9 km/h
-Motore da 16,7 kW, 726cc
-Piatto Accel Deep™ da 122 cm (48“)
-Specifiche
-John Deere Z530M Trattorini
-Dimensioni area Oltre 8.000 m²
-Larghezza di taglio 48" Accel Deep (122 cm)
-Potenza 16,7 kW (22,4 CV) a 3.350 giri/min*
-Velocità Fino a 13,7 km/h8,5 mph</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\Z530M.jpg</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z530m/</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Z320R</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Trattorini</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>7.538</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Facilità di utilizzo
-Elevata manovrabilità
-Struttura robusta
-Maggiori velocità di taglio: 11,3 km/h
-12.7 kW (17 CV)
-Piatto tosaerba Accel Deep™ da 107 cm
-</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>John Deere</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\jd\Z320R.jpg</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z320r/</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4065,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Z320M</t>
+          <t>Z950R</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4068,22 +4075,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Trattorini</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>7.196</t>
+          <t>ZTrak™ a benzina</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Facilità di utilizzo
-Elevata manovrabilità
-Struttura robusta
-Maggiori velocità di taglio: 11,3 km/h
-12.7 kW (17 CV)
-Piatto tosaerba Accel Deep™ da 107 cm
+          <t xml:space="preserve">19 kW (25,5 CV) a 3.250 giri/min (Stage V)
+Velocità di avanzamento: 19,3 km/h (12 mph)
+Larghezze di taglio: 152 cm (60’’) o 183 cm (72’’)
+Pneumatici radiali Airless MichelXTweel Turf opzionali
 </t>
         </is>
       </c>
@@ -4104,12 +4104,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\Z320M.jpg</t>
+          <t>C:\ImmaginiDanea\jd\Z950R.jpg</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z320m/</t>
+          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-raggio-di-sterzata-zero/z950r/</t>
         </is>
       </c>
     </row>
